--- a/player_d_dash/defense-dash-lt6_SeasonType_Playoffs_Season_2021-22.xlsx
+++ b/player_d_dash/defense-dash-lt6_SeasonType_Playoffs_Season_2021-22.xlsx
@@ -649,42 +649,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>50.8%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -694,17 +694,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>68.3</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-8.4</t>
+          <t>-0.8</t>
         </is>
       </c>
     </row>
@@ -714,42 +714,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>50.8%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>67.5</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>68.3</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>-8.4</t>
         </is>
       </c>
     </row>
@@ -959,12 +959,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-29.9</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>63.1</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -1234,17 +1234,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1254,22 +1254,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>35.3%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1279,17 +1279,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>11.2</t>
         </is>
       </c>
     </row>
@@ -1299,42 +1299,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>36.7%</t>
+          <t>36.3%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>44.9</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>-18.9</t>
         </is>
       </c>
     </row>
@@ -1364,42 +1364,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>36.3%</t>
+          <t>35.3%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>66.2</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-18.9</t>
+          <t>-7.9</t>
         </is>
       </c>
     </row>
@@ -1429,42 +1429,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>36.6%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1474,17 +1474,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-10.8</t>
         </is>
       </c>
     </row>
@@ -1559,42 +1559,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>29.8%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>64.5</t>
+          <t>66.9</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>-10.9</t>
         </is>
       </c>
     </row>
@@ -1624,62 +1624,62 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>35.9%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>64.5</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-10.4</t>
+          <t>-5.7</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-15.5</t>
+          <t>-15.4</t>
         </is>
       </c>
     </row>
@@ -2229,17 +2229,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>29.2%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2254,17 +2254,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>67.1</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-16.0</t>
         </is>
       </c>
     </row>
@@ -2469,42 +2469,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Larry Nance Jr.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>68.4</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-7.7</t>
+          <t>-5.5</t>
         </is>
       </c>
     </row>
@@ -2599,42 +2599,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Larry Nance Jr.</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>-7.7</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-16.9</t>
+          <t>-16.8</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>64.1</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3184,42 +3184,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>29.5%</t>
+          <t>36.9%</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3229,17 +3229,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>65.3</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>-10.2</t>
         </is>
       </c>
     </row>
@@ -3249,17 +3249,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Brandon Clarke</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3274,37 +3274,37 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>39.1%</t>
+          <t>29.5%</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>11.8</t>
         </is>
       </c>
     </row>
@@ -3314,17 +3314,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Brandon Clarke</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3334,22 +3334,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>39.1%</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3359,17 +3359,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>64.8</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-3.9</t>
         </is>
       </c>
     </row>
@@ -3379,62 +3379,62 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -3444,22 +3444,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3474,12 +3474,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>34.5%</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3489,17 +3489,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>67.5</t>
+          <t>62.6</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>22.6</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -3509,17 +3509,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3529,22 +3529,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>34.2%</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3554,17 +3554,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -3574,17 +3574,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3604,12 +3604,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>33.9%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>62.2</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>22.6</t>
         </is>
       </c>
     </row>
@@ -3639,12 +3639,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Kevin Huerter</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3654,27 +3654,27 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>29.4%</t>
+          <t>33.9%</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>66.1</t>
+          <t>62.2</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -3704,17 +3704,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>34.2%</t>
+          <t>31.1%</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-5.8</t>
         </is>
       </c>
     </row>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>31.1%</t>
+          <t>29.3%</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-6.0</t>
         </is>
       </c>
     </row>
@@ -3899,42 +3899,42 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>28.1%</t>
+          <t>35.3%</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>-5.9</t>
         </is>
       </c>
     </row>
@@ -3964,42 +3964,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>35.6%</t>
+          <t>28.1%</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>65.7</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -4029,37 +4029,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Onyeka Okongwu</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>42.2%</t>
+          <t>30.8%</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4079,12 +4079,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>65.1</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-7.2</t>
+          <t>-8.1</t>
         </is>
       </c>
     </row>
@@ -4094,37 +4094,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>30.9%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>65.8</t>
+          <t>65.1</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-8.8</t>
+          <t>-7.2</t>
         </is>
       </c>
     </row>
@@ -4159,37 +4159,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Kyle Lowry</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>34.9%</t>
+          <t>38.1%</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4204,17 +4204,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>64.9</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>66.4</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -4224,17 +4224,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Kyle Lowry</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4244,22 +4244,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>38.1%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
+          <t>56.3</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>64.9</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>-8.7</t>
         </is>
       </c>
     </row>
@@ -4289,17 +4289,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4309,22 +4309,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>27.2%</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-8.7</t>
+          <t>-2.9</t>
         </is>
       </c>
     </row>
@@ -4354,22 +4354,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4384,12 +4384,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>27.2%</t>
+          <t>26.2%</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4399,17 +4399,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-7.6</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4469,12 +4469,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>64.2</t>
+          <t>64.1</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>-9.6</t>
+          <t>-9.5</t>
         </is>
       </c>
     </row>
@@ -4484,22 +4484,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Brandon Ingram</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4509,17 +4509,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>26.2%</t>
+          <t>34.4%</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4529,17 +4529,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -4549,42 +4549,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>34.4%</t>
+          <t>34.0%</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4594,17 +4594,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>66.5</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -4679,12 +4679,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>32.1%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4724,17 +4724,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-20.6</t>
+          <t>-6.7</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4769,17 +4769,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>28.1%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>77.8</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>-20.5</t>
         </is>
       </c>
     </row>
@@ -4809,17 +4809,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4829,42 +4829,42 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>37.4%</t>
+          <t>28.1%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>77.8</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>64.1</t>
+          <t>66.4</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-18.1</t>
+          <t>11.3</t>
         </is>
       </c>
     </row>
@@ -4874,17 +4874,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
+          <t>Derrick White</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4894,42 +4894,42 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>31.1%</t>
+          <t>37.1%</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>-15.2</t>
         </is>
       </c>
     </row>
@@ -4939,42 +4939,42 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>31.1%</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4984,17 +4984,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>68.6</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>7.6</t>
         </is>
       </c>
     </row>
@@ -5004,17 +5004,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5024,42 +5024,42 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>31.4%</t>
+          <t>47.9%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>68.6</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-7.4</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -5119,12 +5119,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -5134,42 +5134,42 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>35.1%</t>
+          <t>27.6%</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>60.3</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -5199,42 +5199,42 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>27.6%</t>
+          <t>35.1%</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>67.5</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -5264,17 +5264,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5289,17 +5289,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>30.2%</t>
+          <t>56.5%</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5309,17 +5309,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -5329,17 +5329,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5354,17 +5354,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>56.5%</t>
+          <t>30.2%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>13.6</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-18.5</t>
+          <t>-18.4</t>
         </is>
       </c>
     </row>
@@ -5479,17 +5479,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>29.8%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5499,22 +5499,22 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>64.5</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-15.4</t>
+          <t>-16.7</t>
         </is>
       </c>
     </row>
@@ -5639,12 +5639,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>61.7</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.7</t>
         </is>
       </c>
     </row>
@@ -5654,27 +5654,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>31.7%</t>
+          <t>30.3%</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5699,17 +5699,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>74.6</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -5719,42 +5719,42 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>30.3%</t>
+          <t>42.0%</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5764,17 +5764,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>64.1</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>9.4</t>
         </is>
       </c>
     </row>
@@ -5849,42 +5849,42 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>42.0%</t>
+          <t>34.6%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -5914,42 +5914,42 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>Otto Porter Jr.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>34.6%</t>
+          <t>46.8%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5959,17 +5959,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Otto Porter Jr.</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5989,32 +5989,32 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>45.8%</t>
+          <t>31.9%</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6024,17 +6024,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>73.8</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -6109,42 +6109,42 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>44.1%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-31.6</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -6174,42 +6174,42 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Elfrid Payton</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>30.5%</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>-13.8</t>
         </is>
       </c>
     </row>
@@ -6239,42 +6239,42 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>44.1%</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>64.9</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>-31.6</t>
         </is>
       </c>
     </row>
@@ -6304,42 +6304,42 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Paul Millsap</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>65.3</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>34.7</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Paul Millsap</t>
+          <t>Elfrid Payton</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6399,32 +6399,32 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>34.7</t>
+          <t>10.7</t>
         </is>
       </c>
     </row>
@@ -6434,42 +6434,42 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>39.1%</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>66.2</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>-27.3</t>
         </is>
       </c>
     </row>
@@ -6499,42 +6499,42 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>30.5%</t>
+          <t>30.8%</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>63.1</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-13.8</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -6564,42 +6564,42 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>39.1%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>66.2</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-27.3</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6679,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>19.3</t>
+          <t>19.4</t>
         </is>
       </c>
     </row>
@@ -6954,42 +6954,42 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>39.3%</t>
+          <t>44.0%</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6999,17 +6999,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-21.2</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -7019,42 +7019,42 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>44.0%</t>
+          <t>39.3%</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>66.5</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-21.1</t>
         </is>
       </c>
     </row>
@@ -7084,62 +7084,62 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Daniel Theis</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>40.2%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-19.3</t>
         </is>
       </c>
     </row>
@@ -7214,42 +7214,42 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Daniel Theis</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>43.3%</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7259,17 +7259,17 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>76.9</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-19.3</t>
+          <t>12.6</t>
         </is>
       </c>
     </row>
@@ -7329,12 +7329,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -7344,17 +7344,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7369,17 +7369,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>22.0%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7389,17 +7389,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>76.9</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -7409,17 +7409,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7429,22 +7429,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>22.0%</t>
+          <t>28.9%</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7454,17 +7454,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>69.2</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>65.3</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7484,12 +7484,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>28.9%</t>
+          <t>38.6%</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7519,17 +7519,17 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>-9.1</t>
         </is>
       </c>
     </row>
@@ -7539,37 +7539,37 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>38.6%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7584,17 +7584,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>68.3</t>
+          <t>64.9</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-9.2</t>
+          <t>-6.5</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -7624,22 +7624,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>44.6%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>64.2</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>12.1</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -7689,22 +7689,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>44.6%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>64.2</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -7799,22 +7799,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7829,12 +7829,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>-5.5</t>
         </is>
       </c>
     </row>
@@ -7864,22 +7864,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -7894,12 +7894,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>66.3</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
@@ -7994,62 +7994,62 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Andre Iguodala</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-0.3</t>
         </is>
       </c>
     </row>
@@ -8059,22 +8059,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Coby White</t>
+          <t>JaMychal Green</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -8084,12 +8084,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>29.7%</t>
+          <t>35.5%</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8109,12 +8109,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -8124,22 +8124,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>JaMychal Green</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8149,12 +8149,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>35.5%</t>
+          <t>29.7%</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8174,12 +8174,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>66.6</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -8239,12 +8239,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>17.9</t>
         </is>
       </c>
     </row>
@@ -8254,42 +8254,42 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>24.7%</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -8299,17 +8299,17 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -8319,42 +8319,42 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>24.7%</t>
+          <t>44.8%</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>84.6</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>21.3</t>
         </is>
       </c>
     </row>
@@ -8384,22 +8384,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -8409,17 +8409,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>44.8%</t>
+          <t>52.0%</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>84.6</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21.3</t>
+          <t>-0.4</t>
         </is>
       </c>
     </row>
@@ -8449,12 +8449,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -8464,47 +8464,47 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>52.0%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>68.4</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -8514,42 +8514,42 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>JaVale McGee</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>32.2%</t>
+          <t>33.8%</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>-11.0</t>
         </is>
       </c>
     </row>
@@ -8579,62 +8579,62 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>JaVale McGee</t>
+          <t>Patty Mills</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>14.4</t>
         </is>
       </c>
     </row>
@@ -8644,62 +8644,62 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Willy Hernangomez</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>68.9</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>-31.4</t>
         </is>
       </c>
     </row>
@@ -8709,17 +8709,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Patty Mills</t>
+          <t>Bryn Forbes</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8739,12 +8739,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>64.1</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>35.9</t>
         </is>
       </c>
     </row>
@@ -8774,42 +8774,42 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>69.4</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-15.3</t>
+          <t>5.6</t>
         </is>
       </c>
     </row>
@@ -8904,62 +8904,62 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Bryn Forbes</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>18.5%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>64.1</t>
+          <t>65.3</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>-15.3</t>
         </is>
       </c>
     </row>
@@ -8969,42 +8969,42 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Willy Hernangomez</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9014,17 +9014,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-31.4</t>
+          <t>44.5</t>
         </is>
       </c>
     </row>
@@ -9034,62 +9034,62 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>38.4%</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>69.4</t>
+          <t>65.1</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -9099,17 +9099,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>Caleb Martin</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -9119,17 +9119,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>38.4%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9149,12 +9149,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>65.1</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -9164,17 +9164,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Caleb Martin</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -9184,22 +9184,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>34.3%</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9209,17 +9209,17 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>12.4</t>
         </is>
       </c>
     </row>
@@ -9279,12 +9279,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>65.1</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>6.9</t>
         </is>
       </c>
     </row>
@@ -9294,42 +9294,42 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Frank Ntilikina</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>73.9</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>66.2</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -9359,62 +9359,62 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Frank Ntilikina</t>
+          <t>Danuel House Jr.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>24.4%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>66.1</t>
+          <t>65.1</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>-28.7</t>
         </is>
       </c>
     </row>
@@ -9489,22 +9489,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Danuel House Jr.</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -9514,17 +9514,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>24.4%</t>
+          <t>47.8%</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9534,17 +9534,17 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>90.9</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>65.1</t>
+          <t>71.8</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-28.7</t>
+          <t>19.1</t>
         </is>
       </c>
     </row>
@@ -9554,22 +9554,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -9579,17 +9579,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>47.8%</t>
+          <t>21.6%</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9599,17 +9599,17 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>90.9</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>71.8</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -9619,42 +9619,42 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Damion Lee</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9664,17 +9664,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -9684,42 +9684,42 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Damion Lee</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>62.6</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-18.1</t>
         </is>
       </c>
     </row>
@@ -9814,42 +9814,42 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>Andre Iguodala</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9859,17 +9859,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-18.1</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -9879,22 +9879,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Hassan Whiteside</t>
+          <t>Devonte' Graham</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -9904,17 +9904,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9924,17 +9924,17 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-22.5</t>
+          <t>11.3</t>
         </is>
       </c>
     </row>
@@ -9944,22 +9944,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -9969,12 +9969,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>17.9%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9994,12 +9994,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>65.3</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-5.3</t>
         </is>
       </c>
     </row>
@@ -10009,17 +10009,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Devonte' Graham</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -10034,17 +10034,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>17.9%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -10074,22 +10074,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Hassan Whiteside</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -10099,17 +10099,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>31.3%</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-22.5</t>
         </is>
       </c>
     </row>
@@ -10204,42 +10204,42 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>27.6%</t>
+          <t>21.1%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>87.5</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>67.1</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>20.4</t>
+          <t>-11.3</t>
         </is>
       </c>
     </row>
@@ -10269,12 +10269,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -10284,27 +10284,27 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>19.0%</t>
+          <t>27.6%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10314,17 +10314,17 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>87.5</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>67.2</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>20.3</t>
         </is>
       </c>
     </row>
@@ -10334,17 +10334,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -10354,22 +10354,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>45.2%</t>
+          <t>19.0%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -10464,17 +10464,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Jordan McLaughlin</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -10484,17 +10484,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>20.6%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>66.8</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-6.0</t>
         </is>
       </c>
     </row>
@@ -10529,37 +10529,37 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>46.7%</t>
+          <t>42.4%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -10579,12 +10579,12 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>65.9</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -10594,42 +10594,42 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>27.7%</t>
+          <t>46.7%</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,17 +10639,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>64.8</t>
+          <t>65.9</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-14.8</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -10659,42 +10659,42 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Jordan McLaughlin</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>27.7%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -10724,62 +10724,62 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>27.7%</t>
+          <t>21.1%</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -10789,12 +10789,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -10809,22 +10809,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>21.1%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>-14.8</t>
         </is>
       </c>
     </row>
@@ -10854,37 +10854,37 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>26.6%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -10919,17 +10919,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -10939,17 +10939,17 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>22.2%</t>
+          <t>21.9%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
@@ -11049,62 +11049,62 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Omer Yurtseven</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>21.9%</t>
+          <t>38.1%</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>-6.2</t>
         </is>
       </c>
     </row>
@@ -11114,22 +11114,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Omer Yurtseven</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -11139,17 +11139,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>38.1%</t>
+          <t>23.5%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-6.2</t>
+          <t>-27.5</t>
         </is>
       </c>
     </row>
@@ -11179,42 +11179,42 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>23.5%</t>
+          <t>26.2%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-27.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -11244,22 +11244,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -11269,12 +11269,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>26.1%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -11294,12 +11294,12 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-5.1</t>
         </is>
       </c>
     </row>
@@ -11309,22 +11309,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -11334,12 +11334,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -11359,12 +11359,12 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>63.5</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -11504,17 +11504,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -11524,42 +11524,42 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>-12.3</t>
         </is>
       </c>
     </row>
@@ -11569,42 +11569,42 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>66.8</t>
+          <t>64.2</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-6.8</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -11634,17 +11634,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Jarrett Culver</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -11654,42 +11654,42 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>66.8</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>29.9</t>
+          <t>-6.8</t>
         </is>
       </c>
     </row>
@@ -11699,17 +11699,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -11719,22 +11719,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>64.2</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>23.4</t>
         </is>
       </c>
     </row>
@@ -11829,22 +11829,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -11879,12 +11879,12 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>49.5</t>
         </is>
       </c>
     </row>
@@ -11894,42 +11894,42 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Jarrett Culver</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>-12.3</t>
+          <t>29.9</t>
         </is>
       </c>
     </row>
@@ -12089,17 +12089,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Jordan Nwora</t>
+          <t>Marquese Chriss</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -12114,17 +12114,17 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12134,17 +12134,17 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>64.8</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>-30.5</t>
         </is>
       </c>
     </row>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Marquese Chriss</t>
+          <t>Serge Ibaka</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12179,17 +12179,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>15.8%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12199,17 +12199,17 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>61.7</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-30.5</t>
+          <t>38.3</t>
         </is>
       </c>
     </row>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Serge Ibaka</t>
+          <t>Jordan Nwora</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -12249,32 +12249,32 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>15.8%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
           <t>0.8</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Charles Bassey</t>
+          <t>Yuta Watanabe</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -12309,12 +12309,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -12334,12 +12334,12 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>33.3</t>
         </is>
       </c>
     </row>
@@ -12414,22 +12414,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Yuta Watanabe</t>
+          <t>Charles Bassey</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -12439,12 +12439,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -12464,12 +12464,12 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>64.9</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>35.1</t>
         </is>
       </c>
     </row>
@@ -12479,17 +12479,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Nik Stauskas</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -12504,12 +12504,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -12529,12 +12529,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>60.1</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -12544,17 +12544,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Nik Stauskas</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -12569,12 +12569,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -12594,12 +12594,12 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>60.1</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>10.1</t>
         </is>
       </c>
     </row>
@@ -12739,37 +12739,37 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Gorgui Dieng</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -12789,12 +12789,12 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>42.8</t>
         </is>
       </c>
     </row>
@@ -12804,37 +12804,37 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -12854,12 +12854,12 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>76.6</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>23.4</t>
         </is>
       </c>
     </row>
@@ -12934,22 +12934,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -12984,12 +12984,12 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>76.6</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>36.8</t>
         </is>
       </c>
     </row>
@@ -12999,27 +12999,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Juancho Hernangomez</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -13029,32 +13029,32 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>-26.5</t>
         </is>
       </c>
     </row>
@@ -13064,42 +13064,42 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Juancho Hernangomez</t>
+          <t>Gorgui Dieng</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>13.6%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-26.5</t>
+          <t>34.6</t>
         </is>
       </c>
     </row>
@@ -13129,37 +13129,37 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -13179,12 +13179,12 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>65.2</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>34.9</t>
         </is>
       </c>
     </row>
@@ -13194,22 +13194,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Thanasis Antetokounmpo</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -13244,12 +13244,12 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>64.9</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>35.1</t>
         </is>
       </c>
     </row>
@@ -13259,22 +13259,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -13309,12 +13309,12 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>35.3</t>
         </is>
       </c>
     </row>
@@ -13519,7 +13519,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Juwan Morgan</t>
+          <t>Malik Fitts</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -13569,12 +13569,12 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>100</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Malik Fitts</t>
+          <t>Juwan Morgan</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -13594,7 +13594,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -13619,12 +13619,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>42.9</t>
         </is>
       </c>
     </row>
